--- a/测试用例规范.xlsx
+++ b/测试用例规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Pages目录</t>
   </si>
@@ -286,12 +286,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,14 +337,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +374,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -359,22 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,9 +404,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,16 +434,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,13 +464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -447,37 +471,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -506,7 +499,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +535,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +571,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,37 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,91 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,17 +909,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,23 +974,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,17 +995,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,19 +1023,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,116 +1044,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,10 +1208,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,12 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1301,6 +1288,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1585,17 +1577,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:L10"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1666,7 +1657,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="27">
+      <c r="R3" s="25">
         <f t="shared" ref="R3:R60" si="1">IF(N3="","",1)</f>
         <v>1</v>
       </c>
@@ -1697,7 +1688,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="27">
+      <c r="R4" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1728,7 +1719,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="19"/>
-      <c r="R5" s="27">
+      <c r="R5" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1759,7 +1750,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="19"/>
-      <c r="R6" s="27">
+      <c r="R6" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1790,7 +1781,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="27">
+      <c r="R7" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1817,7 +1808,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="27" t="str">
+      <c r="R8" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1844,7 +1835,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1871,7 +1862,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="27" t="str">
+      <c r="R10" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1896,7 +1887,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21"/>
-      <c r="R11" s="28" t="str">
+      <c r="R11" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1929,7 +1920,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="27">
+      <c r="R12" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1960,7 +1951,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="27">
+      <c r="R13" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1991,7 +1982,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="27">
+      <c r="R14" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2022,7 +2013,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="27">
+      <c r="R15" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2037,23 +2028,23 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="27">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2078,7 +2069,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="27" t="str">
+      <c r="R17" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2103,7 +2094,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="27" t="str">
+      <c r="R18" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2128,7 +2119,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="27" t="str">
+      <c r="R19" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2153,7 +2144,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2178,7 +2169,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="16"/>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2203,7 +2194,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2228,7 +2219,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2259,7 +2250,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="27">
+      <c r="R24" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2288,7 +2279,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="16"/>
-      <c r="R25" s="27">
+      <c r="R25" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2317,7 +2308,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="27">
+      <c r="R26" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2330,23 +2321,23 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27">
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2371,7 +2362,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="27" t="str">
+      <c r="R28" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2396,7 +2387,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2421,7 +2412,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="27" t="str">
+      <c r="R30" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2446,7 +2437,7 @@
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="28" t="str">
+      <c r="R31" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2479,7 +2470,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="27">
+      <c r="R32" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2508,7 +2499,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="16"/>
-      <c r="R33" s="27">
+      <c r="R33" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2521,23 +2512,23 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="27">
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2550,23 +2541,23 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N35" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="27">
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2591,7 +2582,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="16"/>
-      <c r="R36" s="27" t="str">
+      <c r="R36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2616,7 +2607,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="16"/>
-      <c r="R37" s="27" t="str">
+      <c r="R37" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2641,7 +2632,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="16"/>
-      <c r="R38" s="27" t="str">
+      <c r="R38" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2666,7 +2657,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="16"/>
-      <c r="R39" s="27" t="str">
+      <c r="R39" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2691,7 +2682,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="28" t="str">
+      <c r="R40" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2724,7 +2715,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="16"/>
-      <c r="R41" s="27">
+      <c r="R41" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2737,23 +2728,23 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="27">
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2766,23 +2757,23 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27">
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2795,23 +2786,23 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="27">
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2824,23 +2815,23 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N45" s="25" t="s">
+      <c r="N45" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27">
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2853,23 +2844,23 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="26"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N46" s="25" t="s">
+      <c r="N46" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="27">
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2882,23 +2873,23 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27">
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2911,23 +2902,23 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="25" t="s">
+      <c r="I48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="26"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N48" s="25" t="s">
+      <c r="N48" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="27">
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2940,23 +2931,23 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N49" s="25" t="s">
+      <c r="N49" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27">
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2981,7 +2972,7 @@
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="21"/>
-      <c r="R50" s="28" t="str">
+      <c r="R50" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3014,7 +3005,7 @@
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="16"/>
-      <c r="R51" s="27">
+      <c r="R51" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3043,7 +3034,7 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="16"/>
-      <c r="R52" s="27">
+      <c r="R52" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3072,7 +3063,7 @@
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="16"/>
-      <c r="R53" s="27">
+      <c r="R53" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3101,7 +3092,7 @@
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="16"/>
-      <c r="R54" s="27">
+      <c r="R54" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3130,7 +3121,7 @@
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="16"/>
-      <c r="R55" s="27">
+      <c r="R55" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3155,7 +3146,7 @@
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
-      <c r="R56" s="27" t="str">
+      <c r="R56" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3180,7 +3171,7 @@
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
-      <c r="R57" s="27" t="str">
+      <c r="R57" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3205,7 +3196,7 @@
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="16"/>
-      <c r="R58" s="27" t="str">
+      <c r="R58" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3230,7 +3221,7 @@
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="16"/>
-      <c r="R59" s="27" t="str">
+      <c r="R59" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3255,7 +3246,7 @@
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
       <c r="Q60" s="21"/>
-      <c r="R60" s="28" t="str">
+      <c r="R60" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3427,7 +3418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
